--- a/PhD Progress.xlsx
+++ b/PhD Progress.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheilaannschoepp/Documents/phd_productivity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheilaannschoepp/Documents/productivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5154874F-1BB1-2647-973E-7E676A0DECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6882E4-1057-B041-AF73-21039714C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{D506D56E-27E5-7B4E-8CF4-861457431C2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{D506D56E-27E5-7B4E-8CF4-861457431C2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly PhD Tasks" sheetId="16" r:id="rId1"/>
-    <sheet name="Annual PhD Goals" sheetId="11" r:id="rId2"/>
+    <sheet name="To Be Scheduled" sheetId="17" r:id="rId2"/>
+    <sheet name="Annual PhD Goals" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>Identifier</t>
   </si>
@@ -198,16 +199,7 @@
     <t>Value / Benefit of Achieving Task</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Time (h)</t>
-  </si>
-  <si>
-    <t>CSGSA</t>
-  </si>
-  <si>
-    <t>Tasks related to the Computing Science Graduate Students' Association.</t>
   </si>
   <si>
     <t>Totals</t>
@@ -223,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,8 +253,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0E2C3D"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0E2C3D"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +308,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4EA4D8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E2C3D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFAFCF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -471,11 +510,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0E2C3D"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0E2C3D"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0E2C3D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0E2C3D"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0E2C3D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0E2C3D"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0E2C3D"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0E2C3D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0E2C3D"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0E2C3D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0E2C3D"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0E2C3D"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0E2C3D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0E2C3D"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0E2C3D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0E2C3D"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0E2C3D"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0E2C3D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0E2C3D"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0E2C3D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0E2C3D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -537,9 +681,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -552,14 +693,47 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -618,47 +792,118 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="148">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -686,6 +931,1286 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -726,87 +2251,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -818,46 +2262,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -878,17 +2282,58 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -913,10 +2358,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,25 +2616,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8CD933-4FEF-AA44-936A-D3BD6CBCDACF}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D9"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74 C77:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="2" customWidth="1"/>
     <col min="8" max="10" width="42.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1207,10 +2647,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1229,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>9</v>
@@ -1245,11 +2685,11 @@
       <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>54</v>
+      <c r="D2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>29</v>
@@ -1264,42 +2704,40 @@
         <v>52</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="50" t="s">
-        <v>30</v>
-      </c>
+      <c r="K2" s="29"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
@@ -1307,14 +2745,14 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="10"/>
       <c r="G5" s="13"/>
       <c r="H5" s="18"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="52"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1323,8 +2761,8 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="11"/>
       <c r="G6" s="14"/>
       <c r="H6" s="19"/>
@@ -1339,8 +2777,8 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="11"/>
       <c r="G7" s="14"/>
       <c r="H7" s="19"/>
@@ -1355,8 +2793,8 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="11"/>
       <c r="G8" s="14"/>
       <c r="H8" s="19"/>
@@ -1371,8 +2809,8 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="11"/>
       <c r="G9" s="14"/>
       <c r="H9" s="19"/>
@@ -1387,8 +2825,8 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="11"/>
       <c r="G10" s="14"/>
       <c r="H10" s="19"/>
@@ -1403,8 +2841,8 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="11"/>
       <c r="G11" s="14"/>
       <c r="H11" s="19"/>
@@ -1419,8 +2857,8 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="11"/>
       <c r="G12" s="14"/>
       <c r="H12" s="19"/>
@@ -1435,8 +2873,8 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="11"/>
       <c r="G13" s="14"/>
       <c r="H13" s="19"/>
@@ -1451,8 +2889,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="12"/>
       <c r="G14" s="15"/>
       <c r="H14" s="20"/>
@@ -1462,36 +2900,36 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
@@ -1499,14 +2937,14 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="10"/>
       <c r="G17" s="13"/>
       <c r="H17" s="18"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,8 +2953,8 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="11"/>
       <c r="G18" s="14"/>
       <c r="H18" s="19"/>
@@ -1531,8 +2969,8 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="11"/>
       <c r="G19" s="14"/>
       <c r="H19" s="19"/>
@@ -1547,8 +2985,8 @@
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="11"/>
       <c r="G20" s="14"/>
       <c r="H20" s="19"/>
@@ -1563,8 +3001,8 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="11"/>
       <c r="G21" s="14"/>
       <c r="H21" s="19"/>
@@ -1579,8 +3017,8 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="11"/>
       <c r="G22" s="14"/>
       <c r="H22" s="19"/>
@@ -1595,8 +3033,8 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="11"/>
       <c r="G23" s="14"/>
       <c r="H23" s="19"/>
@@ -1611,8 +3049,8 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="11"/>
       <c r="G24" s="14"/>
       <c r="H24" s="19"/>
@@ -1627,8 +3065,8 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="11"/>
       <c r="G25" s="14"/>
       <c r="H25" s="19"/>
@@ -1643,8 +3081,8 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="12"/>
       <c r="G26" s="15"/>
       <c r="H26" s="20"/>
@@ -1654,36 +3092,36 @@
       <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -1691,14 +3129,14 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="10"/>
       <c r="G29" s="13"/>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="52"/>
+      <c r="K29" s="31"/>
       <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1707,8 +3145,8 @@
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="11"/>
       <c r="G30" s="14"/>
       <c r="H30" s="19"/>
@@ -1723,8 +3161,8 @@
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="11"/>
       <c r="G31" s="14"/>
       <c r="H31" s="19"/>
@@ -1739,8 +3177,8 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="11"/>
       <c r="G32" s="14"/>
       <c r="H32" s="19"/>
@@ -1755,8 +3193,8 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="11"/>
       <c r="G33" s="14"/>
       <c r="H33" s="19"/>
@@ -1771,8 +3209,8 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="11"/>
       <c r="G34" s="14"/>
       <c r="H34" s="19"/>
@@ -1787,8 +3225,8 @@
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="11"/>
       <c r="G35" s="14"/>
       <c r="H35" s="19"/>
@@ -1803,8 +3241,8 @@
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="11"/>
       <c r="G36" s="14"/>
       <c r="H36" s="19"/>
@@ -1819,8 +3257,8 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="11"/>
       <c r="G37" s="14"/>
       <c r="H37" s="19"/>
@@ -1835,8 +3273,8 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="12"/>
       <c r="G38" s="15"/>
       <c r="H38" s="20"/>
@@ -1846,36 +3284,36 @@
       <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
+      <c r="A39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
     </row>
     <row r="40" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="34"/>
+      <c r="A40" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
@@ -1883,14 +3321,14 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="10"/>
       <c r="G41" s="13"/>
       <c r="H41" s="18"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="52"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1899,8 +3337,8 @@
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="11"/>
       <c r="G42" s="14"/>
       <c r="H42" s="19"/>
@@ -1915,8 +3353,8 @@
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="11"/>
       <c r="G43" s="14"/>
       <c r="H43" s="19"/>
@@ -1931,8 +3369,8 @@
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="11"/>
       <c r="G44" s="14"/>
       <c r="H44" s="19"/>
@@ -1947,8 +3385,8 @@
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="11"/>
       <c r="G45" s="14"/>
       <c r="H45" s="19"/>
@@ -1963,8 +3401,8 @@
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="11"/>
       <c r="G46" s="14"/>
       <c r="H46" s="19"/>
@@ -1979,8 +3417,8 @@
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="11"/>
       <c r="G47" s="14"/>
       <c r="H47" s="19"/>
@@ -1995,8 +3433,8 @@
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="11"/>
       <c r="G48" s="14"/>
       <c r="H48" s="19"/>
@@ -2011,8 +3449,8 @@
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="11"/>
       <c r="G49" s="14"/>
       <c r="H49" s="19"/>
@@ -2021,14 +3459,14 @@
       <c r="K49" s="16"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>10</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="12"/>
       <c r="G50" s="15"/>
       <c r="H50" s="20"/>
@@ -2038,36 +3476,36 @@
       <c r="L50" s="15"/>
     </row>
     <row r="51" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="31"/>
+      <c r="A51" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="41"/>
     </row>
     <row r="52" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
+      <c r="A52" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="44"/>
     </row>
     <row r="53" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
@@ -2075,14 +3513,14 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
       <c r="F53" s="10"/>
       <c r="G53" s="13"/>
       <c r="H53" s="18"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="52"/>
+      <c r="K53" s="31"/>
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2091,8 +3529,8 @@
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="11"/>
       <c r="G54" s="14"/>
       <c r="H54" s="19"/>
@@ -2107,8 +3545,8 @@
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="11"/>
       <c r="G55" s="14"/>
       <c r="H55" s="19"/>
@@ -2123,8 +3561,8 @@
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="11"/>
       <c r="G56" s="14"/>
       <c r="H56" s="19"/>
@@ -2139,8 +3577,8 @@
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="11"/>
       <c r="G57" s="14"/>
       <c r="H57" s="19"/>
@@ -2155,8 +3593,8 @@
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="11"/>
       <c r="G58" s="14"/>
       <c r="H58" s="19"/>
@@ -2171,8 +3609,8 @@
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="11"/>
       <c r="G59" s="14"/>
       <c r="H59" s="19"/>
@@ -2187,8 +3625,8 @@
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="11"/>
       <c r="G60" s="14"/>
       <c r="H60" s="19"/>
@@ -2203,8 +3641,8 @@
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="11"/>
       <c r="G61" s="14"/>
       <c r="H61" s="19"/>
@@ -2219,8 +3657,8 @@
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="12"/>
       <c r="G62" s="15"/>
       <c r="H62" s="20"/>
@@ -2230,36 +3668,36 @@
       <c r="L62" s="15"/>
     </row>
     <row r="63" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="31"/>
+      <c r="A63" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="41"/>
     </row>
     <row r="64" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="34"/>
+      <c r="A64" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
@@ -2267,14 +3705,14 @@
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="10"/>
       <c r="G65" s="13"/>
       <c r="H65" s="18"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-      <c r="K65" s="52"/>
+      <c r="K65" s="31"/>
       <c r="L65" s="13"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2283,8 +3721,8 @@
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="11"/>
       <c r="G66" s="14"/>
       <c r="H66" s="19"/>
@@ -2299,8 +3737,8 @@
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
       <c r="F67" s="11"/>
       <c r="G67" s="14"/>
       <c r="H67" s="19"/>
@@ -2315,8 +3753,8 @@
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
       <c r="F68" s="11"/>
       <c r="G68" s="14"/>
       <c r="H68" s="19"/>
@@ -2331,8 +3769,8 @@
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="11"/>
       <c r="G69" s="14"/>
       <c r="H69" s="19"/>
@@ -2347,8 +3785,8 @@
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="11"/>
       <c r="G70" s="14"/>
       <c r="H70" s="19"/>
@@ -2363,8 +3801,8 @@
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
       <c r="F71" s="11"/>
       <c r="G71" s="14"/>
       <c r="H71" s="19"/>
@@ -2379,8 +3817,8 @@
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="11"/>
       <c r="G72" s="14"/>
       <c r="H72" s="19"/>
@@ -2395,8 +3833,8 @@
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="11"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="11"/>
       <c r="G73" s="14"/>
       <c r="H73" s="19"/>
@@ -2411,8 +3849,8 @@
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="12"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
       <c r="F74" s="12"/>
       <c r="G74" s="15"/>
       <c r="H74" s="20"/>
@@ -2422,36 +3860,36 @@
       <c r="L74" s="15"/>
     </row>
     <row r="75" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="31"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="41"/>
     </row>
     <row r="76" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="34"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="44"/>
     </row>
     <row r="77" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
@@ -2459,14 +3897,14 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="10"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="10"/>
       <c r="G77" s="13"/>
       <c r="H77" s="18"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
-      <c r="K77" s="52"/>
+      <c r="K77" s="31"/>
       <c r="L77" s="13"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2475,8 +3913,8 @@
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="11"/>
       <c r="G78" s="14"/>
       <c r="H78" s="19"/>
@@ -2491,8 +3929,8 @@
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="11"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
       <c r="F79" s="11"/>
       <c r="G79" s="14"/>
       <c r="H79" s="19"/>
@@ -2507,8 +3945,8 @@
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="11"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
       <c r="F80" s="11"/>
       <c r="G80" s="14"/>
       <c r="H80" s="19"/>
@@ -2523,8 +3961,8 @@
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
       <c r="F81" s="11"/>
       <c r="G81" s="14"/>
       <c r="H81" s="19"/>
@@ -2539,8 +3977,8 @@
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
       <c r="F82" s="11"/>
       <c r="G82" s="14"/>
       <c r="H82" s="19"/>
@@ -2555,8 +3993,8 @@
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="11"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
       <c r="F83" s="11"/>
       <c r="G83" s="14"/>
       <c r="H83" s="19"/>
@@ -2571,8 +4009,8 @@
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
       <c r="F84" s="11"/>
       <c r="G84" s="14"/>
       <c r="H84" s="19"/>
@@ -2587,8 +4025,8 @@
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="11"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
       <c r="F85" s="11"/>
       <c r="G85" s="14"/>
       <c r="H85" s="19"/>
@@ -2603,8 +4041,8 @@
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="12"/>
       <c r="G86" s="15"/>
       <c r="H86" s="20"/>
@@ -2614,259 +4052,61 @@
       <c r="L86" s="15"/>
     </row>
     <row r="87" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="31"/>
+      <c r="A87" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="41"/>
     </row>
     <row r="88" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="34"/>
-    </row>
-    <row r="89" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10">
-        <v>1</v>
-      </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="52"/>
-      <c r="L89" s="13"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="11">
-        <v>2</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="14"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="11">
-        <v>3</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="14"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="11">
-        <v>4</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="14"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="11">
-        <v>5</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="14"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="11">
-        <v>6</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="14"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="11">
-        <v>7</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="14"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="11">
-        <v>8</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="14"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="11">
-        <v>9</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="14"/>
-    </row>
-    <row r="98" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
-        <v>10</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="15"/>
-    </row>
-    <row r="99" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="31"/>
-    </row>
-    <row r="100" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="34"/>
-    </row>
-    <row r="101" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="57">
-        <f>SUM(D5:D14,D17:D26,D29:D38,D41:D50,D53:D62,D65:D74,D77:D86,D89:D98)</f>
+      <c r="A88" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="44"/>
+    </row>
+    <row r="89" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="34"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="36">
+        <f>SUM(D5:D14,D17:D26,D29:D38,D41:D50,D53:D62,D65:D74,D77:D86)</f>
         <v>0</v>
       </c>
-      <c r="E101" s="57">
-        <f>SUM(E5:E14,E17:E26,E29:E38,E41:E50,E53:E62,E65:E74,E77:E86,E89:E98)</f>
+      <c r="E89" s="36">
+        <f>SUM(E5:E14,E17:E26,E29:E38,E41:E50,E53:E62,E65:E74,E77:E86)</f>
         <v>0</v>
       </c>
-      <c r="F101" s="55"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="58"/>
-      <c r="L101" s="56"/>
-    </row>
-    <row r="102" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="35"/>
+    </row>
+    <row r="90" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A88:L88"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="A100:L100"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A76:L76"/>
-    <mergeCell ref="A64:L64"/>
+  <mergeCells count="16">
+    <mergeCell ref="A52:L52"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A27:L27"/>
@@ -2876,32 +4116,64 @@
     <mergeCell ref="A39:L39"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A88:L88"/>
     <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:L64"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:C14 C17:C26 C53:C62 C65:C74 C29:C50 C77:C86 C89:C98">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Low">
+  <conditionalFormatting sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74 C77:C86">
+    <cfRule type="containsText" dxfId="147" priority="7" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="146" priority="8" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="145" priority="9" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F14 F17:F26 F53:F62 F65:F74 F29:F50 F77:F86 F89:F98">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Completed">
+  <conditionalFormatting sqref="D5:D14 D17:D26 D29:D38 D41:D50 D53:D62 D65:D74 D77:D86">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="$D$89"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{46421054-2D76-1A4E-9FCC-F87EFE36C690}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14 E17:E26 E29:E38 E41:E50 E53:E62 E65:E74 E77:E86">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="$E$89"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{01BE39F6-F821-B44F-B78F-BB379E403F39}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F14 F17:F26 F29:F38 F41:F50 F53:F62 F65:F74 F77:F86">
+    <cfRule type="containsText" dxfId="144" priority="4" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="143" priority="5" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="142" priority="6" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G14 G17:G26 G53:G62 G65:G74 G29:G50 G77:G86 G89:G98">
+  <conditionalFormatting sqref="G5:G14 G17:G26 G29:G38 G41:G50 G53:G62 G65:G74 G77:G86">
     <cfRule type="dataBar" priority="3">
       <dataBar showValue="0">
         <cfvo type="num" val="0"/>
@@ -2915,39 +4187,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D14 D17:D26 D29:D38 D41:D50 D53:D62 D65:D74 D77:D86 D89:D98">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="$D$101"/>
-        <color theme="8" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46421054-2D76-1A4E-9FCC-F87EFE36C690}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E14 E17:E26 E29:E38 E41:E50 E53:E62 E65:E74 E77:E86 E89:E98">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="$E$101"/>
-        <color theme="8" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01BE39F6-F821-B44F-B78F-BB379E403F39}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14 C17:C26 C29:C50 C53:C62 C65:C74 C77:C86 C89:C98" xr:uid="{61C9F866-30E2-3245-82C3-30C84CBE2528}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74 C77:C86" xr:uid="{61C9F866-30E2-3245-82C3-30C84CBE2528}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14 F17:F26 F29:F50 F53:F62 F65:F74 F77:F86 F89:F98" xr:uid="{8178AF88-2357-464A-ADE5-1BB2649F91AC}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14 F17:F26 F29:F38 F41:F50 F53:F62 F65:F74 F77:F86" xr:uid="{8178AF88-2357-464A-ADE5-1BB2649F91AC}">
       <formula1>"Not Started,In Progress,Completed,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C28 F27:F28" xr:uid="{E04A147E-A907-5F4E-AC24-E63F94BE1F2B}">
@@ -2959,6 +4203,36 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{46421054-2D76-1A4E-9FCC-F87EFE36C690}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$D$89</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5:D14 D17:D26 D29:D38 D41:D50 D53:D62 D65:D74 D77:D86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01BE39F6-F821-B44F-B78F-BB379E403F39}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$E$89</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E14 E17:E26 E29:E38 E41:E50 E53:E62 E65:E74 E77:E86</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7810DC7-3760-A049-8EF8-6458B27A3A01}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
@@ -2972,37 +4246,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G14 G17:G26 G53:G62 G65:G74 G29:G50 G77:G86 G89:G98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{46421054-2D76-1A4E-9FCC-F87EFE36C690}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>$D$101</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D5:D14 D17:D26 D29:D38 D41:D50 D53:D62 D65:D74 D77:D86 D89:D98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01BE39F6-F821-B44F-B78F-BB379E403F39}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>$E$101</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E5:E14 E17:E26 E29:E38 E41:E50 E53:E62 E65:E74 E77:E86 E89:E98</xm:sqref>
+          <xm:sqref>G5:G14 G17:G26 G29:G38 G41:G50 G53:G62 G65:G74 G77:G86</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3011,13 +4255,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7D5A92-79BC-3A4B-AB3D-9749A5623F0C}">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.1640625" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="64">
+        <v>1</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="65"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="64">
+        <v>2</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="64">
+        <v>3</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="64">
+        <v>4</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="64">
+        <v>5</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="64">
+        <v>6</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="64">
+        <v>7</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="64">
+        <v>8</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="64">
+        <v>9</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67">
+        <v>10</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68"/>
+    </row>
+    <row r="15" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+    </row>
+    <row r="17" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="64">
+        <v>1</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="64">
+        <v>2</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="64">
+        <v>3</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="64">
+        <v>4</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="64">
+        <v>5</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="64">
+        <v>6</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="64">
+        <v>7</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="64">
+        <v>8</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="64">
+        <v>9</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="67">
+        <v>10</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="68"/>
+    </row>
+    <row r="27" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+    </row>
+    <row r="29" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="64">
+        <v>1</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="65"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="64">
+        <v>2</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="64">
+        <v>3</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="64">
+        <v>4</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="64">
+        <v>5</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="65"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="64">
+        <v>6</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="65"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="64">
+        <v>7</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="65"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="64">
+        <v>8</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="65"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="64">
+        <v>9</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="65"/>
+    </row>
+    <row r="38" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="67">
+        <v>10</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="68"/>
+    </row>
+    <row r="39" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+    </row>
+    <row r="41" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="64">
+        <v>1</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="65"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="64">
+        <v>2</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="65"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="64">
+        <v>3</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="65"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="64">
+        <v>4</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="65"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="64">
+        <v>5</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="65"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="64">
+        <v>6</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="65"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="64">
+        <v>7</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="65"/>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="64">
+        <v>8</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="65"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="64">
+        <v>9</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="65"/>
+    </row>
+    <row r="50" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="67">
+        <v>10</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="68"/>
+    </row>
+    <row r="51" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
+    </row>
+    <row r="52" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="76"/>
+    </row>
+    <row r="53" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="64">
+        <v>1</v>
+      </c>
+      <c r="B53" s="65"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="65"/>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="64">
+        <v>2</v>
+      </c>
+      <c r="B54" s="65"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="64">
+        <v>3</v>
+      </c>
+      <c r="B55" s="65"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="64">
+        <v>4</v>
+      </c>
+      <c r="B56" s="65"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="64">
+        <v>5</v>
+      </c>
+      <c r="B57" s="65"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="65"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="64">
+        <v>6</v>
+      </c>
+      <c r="B58" s="65"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="65"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="64">
+        <v>7</v>
+      </c>
+      <c r="B59" s="65"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="65"/>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="64">
+        <v>8</v>
+      </c>
+      <c r="B60" s="65"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="65"/>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="64">
+        <v>9</v>
+      </c>
+      <c r="B61" s="65"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="65"/>
+    </row>
+    <row r="62" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="67">
+        <v>10</v>
+      </c>
+      <c r="B62" s="68"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="68"/>
+    </row>
+    <row r="63" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="73"/>
+    </row>
+    <row r="64" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="76"/>
+    </row>
+    <row r="65" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="64">
+        <v>1</v>
+      </c>
+      <c r="B65" s="65"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="65"/>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="64">
+        <v>2</v>
+      </c>
+      <c r="B66" s="65"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="65"/>
+    </row>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="64">
+        <v>3</v>
+      </c>
+      <c r="B67" s="65"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="65"/>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="64">
+        <v>4</v>
+      </c>
+      <c r="B68" s="65"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="65"/>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="64">
+        <v>5</v>
+      </c>
+      <c r="B69" s="65"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="65"/>
+    </row>
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="64">
+        <v>6</v>
+      </c>
+      <c r="B70" s="65"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="65"/>
+    </row>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="64">
+        <v>7</v>
+      </c>
+      <c r="B71" s="65"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="65"/>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="64">
+        <v>8</v>
+      </c>
+      <c r="B72" s="65"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="65"/>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="64">
+        <v>9</v>
+      </c>
+      <c r="B73" s="65"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="65"/>
+    </row>
+    <row r="74" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="67">
+        <v>10</v>
+      </c>
+      <c r="B74" s="68"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="68"/>
+    </row>
+    <row r="75" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
+    </row>
+    <row r="76" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="76"/>
+    </row>
+    <row r="77" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="67"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="70">
+        <f>SUM(D5:D14,D17:D26,D29:D38,D41:D50,D53:D62,D65:D74)</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="68"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="68"/>
+    </row>
+    <row r="78" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:C14">
+    <cfRule type="containsText" dxfId="141" priority="7" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="9" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:C74 C53:C62 C41:C50 C29:C38 C17:C26">
+    <cfRule type="containsText" dxfId="138" priority="4" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="$D$77"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AC438344-979F-A746-BB7B-C8AC8F4D5275}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D74 D53:D62 D41:D50 D29:D38 D17:D26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="$D$77"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7513F11B-7A68-0F4B-BD65-3BE1A4793C46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74" xr:uid="{F6F618A3-7AFB-AC48-9D39-D8CB46F192D0}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AC438344-979F-A746-BB7B-C8AC8F4D5275}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$D$77</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7513F11B-7A68-0F4B-BD65-3BE1A4793C46}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$D$77</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D65:D74 D53:D62 D41:D50 D29:D38 D17:D26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA95F2E1-A9C0-E140-B2B4-D84981CC9F26}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3030,7 +5271,7 @@
     <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="44.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="40.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="26" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.1640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -3071,14 +5312,14 @@
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
       <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
@@ -3087,35 +5328,35 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="25" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -3130,55 +5371,55 @@
       <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="46"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="53"/>
     </row>
     <row r="5" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -3187,9 +5428,9 @@
       <c r="B5" s="14"/>
       <c r="C5" s="11"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -3209,8 +5450,9 @@
       <c r="B6" s="14"/>
       <c r="C6" s="11"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="11"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -3230,9 +5472,9 @@
       <c r="B7" s="14"/>
       <c r="C7" s="11"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -3252,9 +5494,9 @@
       <c r="B8" s="14"/>
       <c r="C8" s="11"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -3274,9 +5516,9 @@
       <c r="B9" s="14"/>
       <c r="C9" s="11"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -3296,9 +5538,9 @@
       <c r="B10" s="14"/>
       <c r="C10" s="11"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -3318,9 +5560,9 @@
       <c r="B11" s="14"/>
       <c r="C11" s="11"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -3340,9 +5582,9 @@
       <c r="B12" s="14"/>
       <c r="C12" s="11"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3362,9 +5604,9 @@
       <c r="B13" s="14"/>
       <c r="C13" s="11"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -3378,70 +5620,70 @@
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="31"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="44"/>
     </row>
     <row r="17" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
@@ -3642,70 +5884,70 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>10</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="31"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="34"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="44"/>
     </row>
     <row r="29" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
@@ -3906,70 +6148,70 @@
       <c r="R37" s="14"/>
     </row>
     <row r="38" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="12">
         <v>10</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="43"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="53"/>
     </row>
     <row r="41" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
@@ -4170,70 +6412,70 @@
       <c r="R49" s="14"/>
     </row>
     <row r="50" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="12">
         <v>10</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
     </row>
     <row r="51" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="31"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="41"/>
     </row>
     <row r="52" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="34"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="44"/>
     </row>
     <row r="53" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
@@ -4434,70 +6676,70 @@
       <c r="R61" s="14"/>
     </row>
     <row r="62" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+      <c r="A62" s="12">
         <v>10</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="31"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="41"/>
     </row>
     <row r="64" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="34"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="44"/>
     </row>
     <row r="65" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
@@ -4698,70 +6940,70 @@
       <c r="R73" s="14"/>
     </row>
     <row r="74" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+      <c r="A74" s="12">
         <v>10</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="31"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="41"/>
     </row>
     <row r="76" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="34"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="44"/>
     </row>
     <row r="77" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
@@ -4962,70 +7204,70 @@
       <c r="R85" s="14"/>
     </row>
     <row r="86" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
+      <c r="A86" s="12">
         <v>10</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
     </row>
     <row r="87" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="31"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="41"/>
     </row>
     <row r="88" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="34"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="44"/>
     </row>
     <row r="89" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
@@ -5226,70 +7468,70 @@
       <c r="R97" s="14"/>
     </row>
     <row r="98" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
+      <c r="A98" s="12">
         <v>10</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
     </row>
     <row r="99" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="30"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="30"/>
-      <c r="P99" s="30"/>
-      <c r="Q99" s="30"/>
-      <c r="R99" s="31"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="41"/>
     </row>
     <row r="100" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33"/>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="33"/>
-      <c r="R100" s="34"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="44"/>
     </row>
     <row r="101" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
@@ -5490,70 +7732,70 @@
       <c r="R109" s="14"/>
     </row>
     <row r="110" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11">
+      <c r="A110" s="12">
         <v>10</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
       <c r="F110" s="12"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="14"/>
-      <c r="R110" s="14"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
     </row>
     <row r="111" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="30"/>
-      <c r="K111" s="30"/>
-      <c r="L111" s="30"/>
-      <c r="M111" s="30"/>
-      <c r="N111" s="30"/>
-      <c r="O111" s="30"/>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="30"/>
-      <c r="R111" s="31"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="40"/>
+      <c r="O111" s="40"/>
+      <c r="P111" s="40"/>
+      <c r="Q111" s="40"/>
+      <c r="R111" s="41"/>
     </row>
     <row r="112" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="33"/>
-      <c r="L112" s="33"/>
-      <c r="M112" s="33"/>
-      <c r="N112" s="33"/>
-      <c r="O112" s="33"/>
-      <c r="P112" s="33"/>
-      <c r="Q112" s="33"/>
-      <c r="R112" s="34"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="43"/>
+      <c r="N112" s="43"/>
+      <c r="O112" s="43"/>
+      <c r="P112" s="43"/>
+      <c r="Q112" s="43"/>
+      <c r="R112" s="44"/>
     </row>
     <row r="113" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
@@ -5754,70 +7996,70 @@
       <c r="R121" s="14"/>
     </row>
     <row r="122" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11">
+      <c r="A122" s="12">
         <v>10</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
       <c r="F122" s="12"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="14"/>
-      <c r="R122" s="14"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
     </row>
     <row r="123" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="30"/>
-      <c r="L123" s="30"/>
-      <c r="M123" s="30"/>
-      <c r="N123" s="30"/>
-      <c r="O123" s="30"/>
-      <c r="P123" s="30"/>
-      <c r="Q123" s="30"/>
-      <c r="R123" s="31"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="40"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="41"/>
     </row>
     <row r="124" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32" t="s">
+      <c r="A124" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
-      <c r="K124" s="33"/>
-      <c r="L124" s="33"/>
-      <c r="M124" s="33"/>
-      <c r="N124" s="33"/>
-      <c r="O124" s="33"/>
-      <c r="P124" s="33"/>
-      <c r="Q124" s="33"/>
-      <c r="R124" s="34"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43"/>
+      <c r="O124" s="43"/>
+      <c r="P124" s="43"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="44"/>
     </row>
     <row r="125" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
@@ -6018,70 +8260,70 @@
       <c r="R133" s="14"/>
     </row>
     <row r="134" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="11">
+      <c r="A134" s="12">
         <v>10</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
       <c r="F134" s="12"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="14"/>
-      <c r="R134" s="14"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
     </row>
     <row r="135" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="30"/>
-      <c r="J135" s="30"/>
-      <c r="K135" s="30"/>
-      <c r="L135" s="30"/>
-      <c r="M135" s="30"/>
-      <c r="N135" s="30"/>
-      <c r="O135" s="30"/>
-      <c r="P135" s="30"/>
-      <c r="Q135" s="30"/>
-      <c r="R135" s="31"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="40"/>
+      <c r="O135" s="40"/>
+      <c r="P135" s="40"/>
+      <c r="Q135" s="40"/>
+      <c r="R135" s="41"/>
     </row>
     <row r="136" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="32" t="s">
+      <c r="A136" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="33"/>
-      <c r="K136" s="33"/>
-      <c r="L136" s="33"/>
-      <c r="M136" s="33"/>
-      <c r="N136" s="33"/>
-      <c r="O136" s="33"/>
-      <c r="P136" s="33"/>
-      <c r="Q136" s="33"/>
-      <c r="R136" s="34"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="43"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="43"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="43"/>
+      <c r="O136" s="43"/>
+      <c r="P136" s="43"/>
+      <c r="Q136" s="43"/>
+      <c r="R136" s="44"/>
     </row>
     <row r="137" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
@@ -6306,6 +8548,16 @@
     <row r="147" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A135:R135"/>
+    <mergeCell ref="A136:R136"/>
+    <mergeCell ref="A63:R63"/>
+    <mergeCell ref="A64:R64"/>
+    <mergeCell ref="A123:R123"/>
+    <mergeCell ref="A124:R124"/>
+    <mergeCell ref="A111:R111"/>
+    <mergeCell ref="A112:R112"/>
+    <mergeCell ref="A99:R99"/>
+    <mergeCell ref="A100:R100"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="A16:R16"/>
     <mergeCell ref="A39:R39"/>
@@ -6321,66 +8573,41 @@
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A135:R135"/>
-    <mergeCell ref="A136:R136"/>
-    <mergeCell ref="A63:R63"/>
-    <mergeCell ref="A64:R64"/>
-    <mergeCell ref="A123:R123"/>
-    <mergeCell ref="A124:R124"/>
-    <mergeCell ref="A111:R111"/>
-    <mergeCell ref="A112:R112"/>
-    <mergeCell ref="A99:R99"/>
-    <mergeCell ref="A100:R100"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74 C77:C86 C89:C98 C101:C110 C113:C122 C125:C134 C137:C146">
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Low">
+  <conditionalFormatting sqref="C137:C146 C125:C134 C113:C122 C101:C110 C89:C98 C77:C86 C65:C74 C53:C62 C41:C50 C29:C38 C17:C26 C5:C14">
+    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F14 F17:F26 F29:F38 F41:F50 F53:F62 F65:F74 F77:F86 F89:F98 F101:F110 F113:F122 F125:F134 F137:F146">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Completed">
+  <conditionalFormatting sqref="F137:F146 F125:F134 F113:F122 F101:F110 F89:F98 F77:F86 F65:F74 F53:F62 F41:F50 F29:F38 F17:F26 F5:F14">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K26 K29:K38 K41:K50 K53:K62 K65:K74 K77:K86 K89:K98 K101:K110 K113:K122 K125:K134 K137:K146 K5:K14">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>IF($K5="", 0, IF(AND($K5&lt;TODAY(), OR($L5="", $L5="N"), OR($F5="", $F5="Not Started", $F5="In Progress", $F5="On Hold")), 1, 0))</formula>
+  <conditionalFormatting sqref="D137:D146 D125:D134 D113:D122 D101:D110 D89:D98 D77:D86 D65:D74 D53:D62 D41:D50 D29:D38 D17:D26 D5:D14">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>IF(AND(NOT(ISBLANK($D5)), $D5&lt;TODAY(), OR($F5="Not Started", $F5="")), 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M26 M29:M38 M41:M50 M53:M62 M65:M74 M77:M86 M89:M98 M101:M110 M113:M122 M125:M134 M137:M146 M5:M14">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>IF($M5="", 0, IF(AND($M5&lt;TODAY(), OR($N5="", $N5="N"), OR($F5="", $F5="Not Started", $F5="In Progress", $F5="On Hold")), 1, 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O26 O29:O38 O41:O50 O53:O62 O65:O74 O77:O86 O89:O98 O101:O110 O113:O122 O125:O134 O137:O146 O5:O14">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>IF($O5="", 0, IF(AND($O5&lt;TODAY(), OR($P5="", $P5="N"), OR($F5="", $F5="Not Started", $F5="In Progress", $F5="On Hold")), 1, 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D14 D17:D26 D29:D38 D41:D50 D53:D62 D65:D74 D77:D86 D89:D98 D101:D110 D113:D122 D125:D134 D137:D146">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>IF(AND(NOT(ISBLANK($D5)), $D5&lt;TODAY(), $F5="Not Started"), 1, 0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E14 E17:E26 E29:E38 E41:E50 E53:E62 E65:E74 E77:E86 E89:E98 E101:E110 E113:E122 E125:E134 E137:E146">
-    <cfRule type="expression" dxfId="6" priority="2">
+  <conditionalFormatting sqref="E137:E146 E125:E134 E113:E122 E101:E110 E89:E98 E77:E86 E65:E74 E53:E62 E41:E50 E29:E38 E17:E26 E5:E14">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>IF($E5="", 0, IF(AND(OR($F5="Not Started", $F5="", $F5="In Progress", $F5="On Hold"), $E5&lt;TODAY()), 1, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G14 G17:G26 G29:G38 G41:G50 G53:G62 G65:G74 G77:G86 G89:G98 G101:G110 G113:G122 G125:G134 G137:G146">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="G137:G146 G125:G134 G113:G122 G101:G110 G89:G98 G77:G86 G65:G74 G53:G62 G41:G50 G29:G38 G17:G26 G5:G14">
+    <cfRule type="dataBar" priority="7">
       <dataBar showValue="0">
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -6393,14 +8620,29 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K14 K17:K26 K29:K38 K41:K50 K53:K62 K65:K74 K77:K86 K89:K98 K101:K110 K113:K122 K125:K134 K137:K146">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+      <formula>IF($K5="", 0, IF(AND($K5&lt;TODAY(), $L5="", OR($F5="", $F5="Not Started", $F5="In Progress")), 1, 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M14 M17:M26 M29:M38 M41:M50 M53:M62 M65:M74 M77:M86 M89:M98 M101:M110 M113:M122 M125:M134 M137:M146">
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>IF($M5="", 0, IF(AND($M5&lt;TODAY(), $N5="", OR($F5="", $F5="Not Started", $F5="In Progress")), 1, 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O14 O17:O26 O29:O38 O41:O50 O53:O62 O65:O74 O77:O86 O89:O98 O101:O110 O113:O122 O125:O134 O137:O146">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>IF($O5="", 0, IF(AND($O5&lt;TODAY(), $P5="", OR($F5="", $F5="Not Started", $F5="In Progress")), 1, 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C125:C134 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74 C77:C86 C89:C98 C101:C110 C113:C122 C5:C14 C137:C146" xr:uid="{B9426542-08FB-F842-A96C-0F5CACD50ABA}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C125:C134 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74 C77:C86 C89:C98 C101:C110 C113:C122 C5:C14 C137:C146" xr:uid="{B9426542-08FB-F842-A96C-0F5CACD50ABA}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F113:F122 F101:F110 F125:F134 F65:F74 F17:F26 F29:F38 F41:F50 F53:F62 F5:F14 F77:F86 F89:F98 F137:F146" xr:uid="{431D2EBD-E74C-C64F-BF6B-2E46CB7B84C6}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F113:F122 F101:F110 F125:F134 F65:F74 F17:F26 F29:F38 F41:F50 F53:F62 F5:F14 F77:F86 F89:F98 F137:F146" xr:uid="{431D2EBD-E74C-C64F-BF6B-2E46CB7B84C6}">
       <formula1>"Not Started,In Progress,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L14 L17:L26 L29:L38 L41:L50 L53:L62 L65:L74 L77:L86 L89:L98 L101:L110 L113:L122 L125:L134 L137:L146 N137:N146 N125:N134 N113:N122 N101:N110 N89:N98 N77:N86 N65:N74 N53:N62 N41:N50 N29:N38 N17:N26 N5:N14 P5:P14 P17:P26 P29:P38 P41:P50 P53:P62 P65:P74 P77:P86 P89:P98 P101:P110 P113:P122 P125:P134 P137:P146" xr:uid="{0E80F935-71FC-E14D-84AC-7715391C4883}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P137:P146 L17:L26 L29:L38 L41:L50 L53:L62 L65:L74 L77:L86 L89:L98 L101:L110 L113:L122 L125:L134 L137:L146 N137:N146 N125:N134 N113:N122 N101:N110 N89:N98 N77:N86 N65:N74 N53:N62 N41:N50 N29:N38 N17:N26 N5:N14 P5:P14 P17:P26 P29:P38 P41:P50 P53:P62 P65:P74 P77:P86 P89:P98 P101:P110 P113:P122 P125:P134 L6:L14 L5" xr:uid="{0E80F935-71FC-E14D-84AC-7715391C4883}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6422,7 +8664,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G14 G17:G26 G29:G38 G41:G50 G53:G62 G65:G74 G77:G86 G89:G98 G101:G110 G113:G122 G125:G134 G137:G146</xm:sqref>
+          <xm:sqref>G137:G146 G125:G134 G113:G122 G101:G110 G89:G98 G77:G86 G65:G74 G53:G62 G41:G50 G29:G38 G17:G26 G5:G14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/PhD Progress.xlsx
+++ b/PhD Progress.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheilaannschoepp/Documents/productivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6882E4-1057-B041-AF73-21039714C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FAA635-B667-9447-96B2-6D426617D372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{D506D56E-27E5-7B4E-8CF4-861457431C2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D506D56E-27E5-7B4E-8CF4-861457431C2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weekly PhD Tasks" sheetId="16" r:id="rId1"/>
-    <sheet name="To Be Scheduled" sheetId="17" r:id="rId2"/>
+    <sheet name="To Be Scheduled" sheetId="17" r:id="rId1"/>
+    <sheet name="Weekly PhD Tasks" sheetId="16" r:id="rId2"/>
     <sheet name="Annual PhD Goals" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -735,6 +735,63 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -744,22 +801,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,76 +848,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="23">
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -870,7 +871,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -880,7 +881,18 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -890,7 +902,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -900,17 +912,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -940,7 +942,18 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -956,11 +969,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6" tint="-0.499984740745262"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,1269 +1083,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2614,11 +1364,1008 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7D5A92-79BC-3A4B-AB3D-9749A5623F0C}">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.1640625" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45">
+        <v>1</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="45">
+        <v>2</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="45">
+        <v>3</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="45">
+        <v>4</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="45">
+        <v>5</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="45">
+        <v>6</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="45">
+        <v>7</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="45">
+        <v>8</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="45">
+        <v>9</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
+        <v>10</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+    </row>
+    <row r="17" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45">
+        <v>1</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="45">
+        <v>2</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="45">
+        <v>3</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="45">
+        <v>4</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="45">
+        <v>5</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="45">
+        <v>6</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="45">
+        <v>7</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="45">
+        <v>8</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="45">
+        <v>9</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>10</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+    </row>
+    <row r="27" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+    </row>
+    <row r="29" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="45">
+        <v>1</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="45">
+        <v>2</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="46"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="45">
+        <v>3</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="45">
+        <v>4</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="45">
+        <v>5</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="46"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="45">
+        <v>6</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="46"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="45">
+        <v>7</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="46"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="45">
+        <v>8</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="46"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="45">
+        <v>9</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="46"/>
+    </row>
+    <row r="38" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="48">
+        <v>10</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+    </row>
+    <row r="39" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63"/>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+    </row>
+    <row r="41" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="45">
+        <v>1</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="45">
+        <v>2</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="45">
+        <v>3</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="45">
+        <v>4</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="45">
+        <v>5</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="45">
+        <v>6</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="46"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="45">
+        <v>7</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="45">
+        <v>8</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="45">
+        <v>9</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="46"/>
+    </row>
+    <row r="50" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="48">
+        <v>10</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="49"/>
+    </row>
+    <row r="51" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+    </row>
+    <row r="52" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+    </row>
+    <row r="53" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="45">
+        <v>1</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="46"/>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="45">
+        <v>2</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="46"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="45">
+        <v>3</v>
+      </c>
+      <c r="B55" s="46"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="46"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="45">
+        <v>4</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="46"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="45">
+        <v>5</v>
+      </c>
+      <c r="B57" s="46"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="46"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="45">
+        <v>6</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="46"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="45">
+        <v>7</v>
+      </c>
+      <c r="B59" s="46"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="46"/>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="45">
+        <v>8</v>
+      </c>
+      <c r="B60" s="46"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="46"/>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="45">
+        <v>9</v>
+      </c>
+      <c r="B61" s="46"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="46"/>
+    </row>
+    <row r="62" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="48">
+        <v>10</v>
+      </c>
+      <c r="B62" s="49"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="49"/>
+    </row>
+    <row r="63" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="63"/>
+    </row>
+    <row r="64" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="66"/>
+    </row>
+    <row r="65" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="45">
+        <v>1</v>
+      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="46"/>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="45">
+        <v>2</v>
+      </c>
+      <c r="B66" s="46"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="46"/>
+    </row>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="45">
+        <v>3</v>
+      </c>
+      <c r="B67" s="46"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="46"/>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="45">
+        <v>4</v>
+      </c>
+      <c r="B68" s="46"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="46"/>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="45">
+        <v>5</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="46"/>
+    </row>
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="45">
+        <v>6</v>
+      </c>
+      <c r="B70" s="46"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="46"/>
+    </row>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="45">
+        <v>7</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="46"/>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="45">
+        <v>8</v>
+      </c>
+      <c r="B72" s="46"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="46"/>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="45">
+        <v>9</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="46"/>
+    </row>
+    <row r="74" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48">
+        <v>10</v>
+      </c>
+      <c r="B74" s="49"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="49"/>
+    </row>
+    <row r="75" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
+    </row>
+    <row r="76" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="66"/>
+    </row>
+    <row r="77" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="48"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="51">
+        <f>SUM(D5:D14,D17:D26,D29:D38,D41:D50,D53:D62,D65:D74)</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="49"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="49"/>
+    </row>
+    <row r="78" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:C14">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C26 C29:C38 C41:C50 C53:C62 C65:C74">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="$D$77"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AC438344-979F-A746-BB7B-C8AC8F4D5275}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D74 D53:D62 D41:D50 D29:D38 D17:D26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="$D$77"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7513F11B-7A68-0F4B-BD65-3BE1A4793C46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74" xr:uid="{F6F618A3-7AFB-AC48-9D39-D8CB46F192D0}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AC438344-979F-A746-BB7B-C8AC8F4D5275}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$D$77</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7513F11B-7A68-0F4B-BD65-3BE1A4793C46}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$D$77</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D65:D74 D53:D62 D41:D50 D29:D38 D17:D26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8CD933-4FEF-AA44-936A-D3BD6CBCDACF}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74 C77:C86"/>
     </sheetView>
@@ -2708,36 +2455,36 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
@@ -2900,36 +2647,36 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
@@ -3092,36 +2839,36 @@
       <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -3284,36 +3031,36 @@
       <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
     </row>
     <row r="40" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="44"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
     </row>
     <row r="41" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
@@ -3476,36 +3223,36 @@
       <c r="L50" s="15"/>
     </row>
     <row r="51" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="41"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
     </row>
     <row r="52" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="44"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="54"/>
     </row>
     <row r="53" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
@@ -3668,36 +3415,36 @@
       <c r="L62" s="15"/>
     </row>
     <row r="63" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="41"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="60"/>
     </row>
     <row r="64" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="44"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="54"/>
     </row>
     <row r="65" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
@@ -3860,36 +3607,36 @@
       <c r="L74" s="15"/>
     </row>
     <row r="75" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="41"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="60"/>
     </row>
     <row r="76" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="44"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="54"/>
     </row>
     <row r="77" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
@@ -4052,36 +3799,36 @@
       <c r="L86" s="15"/>
     </row>
     <row r="87" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="41"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="60"/>
     </row>
     <row r="88" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="44"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="54"/>
     </row>
     <row r="89" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="34"/>
@@ -4106,6 +3853,12 @@
     <row r="90" spans="1:12" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:L64"/>
     <mergeCell ref="A52:L52"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -4116,22 +3869,16 @@
     <mergeCell ref="A39:L39"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A76:L76"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A88:L88"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:L64"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74 C77:C86">
-    <cfRule type="containsText" dxfId="147" priority="7" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",C5)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="8" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="9" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",C5)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D14 D17:D26 D29:D38 D41:D50 D53:D62 D65:D74 D77:D86">
@@ -4163,14 +3910,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 F17:F26 F29:F38 F41:F50 F53:F62 F65:F74 F77:F86">
-    <cfRule type="containsText" dxfId="144" priority="4" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="5" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="6" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G14 G17:G26 G29:G38 G41:G50 G53:G62 G65:G74 G77:G86">
@@ -4254,1011 +4001,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7D5A92-79BC-3A4B-AB3D-9749A5623F0C}">
-  <dimension ref="A1:G78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="75.1640625" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-    </row>
-    <row r="3" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-    </row>
-    <row r="5" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64">
-        <v>1</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
-        <v>2</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
-        <v>3</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
-        <v>4</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="64">
-        <v>5</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="64">
-        <v>6</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="64">
-        <v>7</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="64">
-        <v>8</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="65"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="64">
-        <v>9</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="65"/>
-    </row>
-    <row r="14" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
-        <v>10</v>
-      </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="68"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-    </row>
-    <row r="17" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64">
-        <v>1</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="64">
-        <v>2</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="65"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="64">
-        <v>3</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="65"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="64">
-        <v>4</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="65"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="64">
-        <v>5</v>
-      </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="65"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="64">
-        <v>6</v>
-      </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="65"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="64">
-        <v>7</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="64">
-        <v>8</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="65"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="64">
-        <v>9</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="65"/>
-    </row>
-    <row r="26" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
-        <v>10</v>
-      </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="68"/>
-    </row>
-    <row r="27" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
-    </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
-    </row>
-    <row r="29" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64">
-        <v>1</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="65"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="64">
-        <v>2</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="65"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="64">
-        <v>3</v>
-      </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="64">
-        <v>4</v>
-      </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="65"/>
-    </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="64">
-        <v>5</v>
-      </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="65"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="64">
-        <v>6</v>
-      </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="65"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="64">
-        <v>7</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="65"/>
-    </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="64">
-        <v>8</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="65"/>
-    </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="64">
-        <v>9</v>
-      </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="65"/>
-    </row>
-    <row r="38" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
-        <v>10</v>
-      </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="68"/>
-    </row>
-    <row r="39" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
-    </row>
-    <row r="40" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="76"/>
-    </row>
-    <row r="41" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64">
-        <v>1</v>
-      </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="65"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="64">
-        <v>2</v>
-      </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="65"/>
-    </row>
-    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="64">
-        <v>3</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="65"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="64">
-        <v>4</v>
-      </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="65"/>
-    </row>
-    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="64">
-        <v>5</v>
-      </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="65"/>
-    </row>
-    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="64">
-        <v>6</v>
-      </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="65"/>
-    </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="64">
-        <v>7</v>
-      </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="65"/>
-    </row>
-    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="64">
-        <v>8</v>
-      </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="65"/>
-    </row>
-    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="64">
-        <v>9</v>
-      </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="65"/>
-    </row>
-    <row r="50" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67">
-        <v>10</v>
-      </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="68"/>
-    </row>
-    <row r="51" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
-    </row>
-    <row r="52" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="76"/>
-    </row>
-    <row r="53" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64">
-        <v>1</v>
-      </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="65"/>
-    </row>
-    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="64">
-        <v>2</v>
-      </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="65"/>
-    </row>
-    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="64">
-        <v>3</v>
-      </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="65"/>
-    </row>
-    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="64">
-        <v>4</v>
-      </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="65"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="64">
-        <v>5</v>
-      </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="65"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="64">
-        <v>6</v>
-      </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="65"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="64">
-        <v>7</v>
-      </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="65"/>
-    </row>
-    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="64">
-        <v>8</v>
-      </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="65"/>
-    </row>
-    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="64">
-        <v>9</v>
-      </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="65"/>
-    </row>
-    <row r="62" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
-        <v>10</v>
-      </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="68"/>
-    </row>
-    <row r="63" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="73"/>
-    </row>
-    <row r="64" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="76"/>
-    </row>
-    <row r="65" spans="1:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="64">
-        <v>1</v>
-      </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="65"/>
-    </row>
-    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="64">
-        <v>2</v>
-      </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="65"/>
-    </row>
-    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="64">
-        <v>3</v>
-      </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="65"/>
-    </row>
-    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="64">
-        <v>4</v>
-      </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="65"/>
-    </row>
-    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="64">
-        <v>5</v>
-      </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="65"/>
-    </row>
-    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="64">
-        <v>6</v>
-      </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="65"/>
-    </row>
-    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="64">
-        <v>7</v>
-      </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="65"/>
-    </row>
-    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="64">
-        <v>8</v>
-      </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="65"/>
-    </row>
-    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="64">
-        <v>9</v>
-      </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="65"/>
-    </row>
-    <row r="74" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="67">
-        <v>10</v>
-      </c>
-      <c r="B74" s="68"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="68"/>
-    </row>
-    <row r="75" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="73"/>
-    </row>
-    <row r="76" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="76"/>
-    </row>
-    <row r="77" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="70">
-        <f>SUM(D5:D14,D17:D26,D29:D38,D41:D50,D53:D62,D65:D74)</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="68"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="68"/>
-    </row>
-    <row r="78" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5:C14">
-    <cfRule type="containsText" dxfId="141" priority="7" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",C5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="8" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",C5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="9" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65:C74 C53:C62 C41:C50 C29:C38 C17:C26">
-    <cfRule type="containsText" dxfId="138" priority="4" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",C17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="5" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",C17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="6" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D14">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="$D$77"/>
-        <color theme="8" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AC438344-979F-A746-BB7B-C8AC8F4D5275}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D74 D53:D62 D41:D50 D29:D38 D17:D26">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="$D$77"/>
-        <color theme="8" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7513F11B-7A68-0F4B-BD65-3BE1A4793C46}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14 C17:C26 C29:C38 C41:C50 C53:C62 C65:C74" xr:uid="{F6F618A3-7AFB-AC48-9D39-D8CB46F192D0}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AC438344-979F-A746-BB7B-C8AC8F4D5275}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>$D$77</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D5:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7513F11B-7A68-0F4B-BD65-3BE1A4793C46}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>$D$77</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor theme="5" tint="0.39997558519241921"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D65:D74 D53:D62 D41:D50 D29:D38 D17:D26</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA95F2E1-A9C0-E140-B2B4-D84981CC9F26}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:E6"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5312,14 +4062,14 @@
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
       <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
@@ -5378,48 +4128,48 @@
       <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75"/>
     </row>
     <row r="4" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -5642,48 +4392,48 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="60"/>
     </row>
     <row r="16" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="54"/>
     </row>
     <row r="17" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
@@ -5906,48 +4656,48 @@
       <c r="R26" s="15"/>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
     </row>
     <row r="28" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="44"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="54"/>
     </row>
     <row r="29" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
@@ -6170,48 +4920,48 @@
       <c r="R38" s="15"/>
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="60"/>
     </row>
     <row r="40" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="53"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="72"/>
     </row>
     <row r="41" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
@@ -6434,48 +5184,48 @@
       <c r="R50" s="15"/>
     </row>
     <row r="51" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="41"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="60"/>
     </row>
     <row r="52" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="44"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="54"/>
     </row>
     <row r="53" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
@@ -6698,48 +5448,48 @@
       <c r="R62" s="15"/>
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="41"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="60"/>
     </row>
     <row r="64" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="44"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="54"/>
     </row>
     <row r="65" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
@@ -6962,48 +5712,48 @@
       <c r="R74" s="15"/>
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="41"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="60"/>
     </row>
     <row r="76" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="44"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="54"/>
     </row>
     <row r="77" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
@@ -7226,48 +5976,48 @@
       <c r="R86" s="15"/>
     </row>
     <row r="87" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="41"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="60"/>
     </row>
     <row r="88" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="44"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="53"/>
+      <c r="P88" s="53"/>
+      <c r="Q88" s="53"/>
+      <c r="R88" s="54"/>
     </row>
     <row r="89" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
@@ -7490,48 +6240,48 @@
       <c r="R98" s="15"/>
     </row>
     <row r="99" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="39" t="s">
+      <c r="A99" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="40"/>
-      <c r="N99" s="40"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="41"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="59"/>
+      <c r="N99" s="59"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="59"/>
+      <c r="R99" s="60"/>
     </row>
     <row r="100" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="42" t="s">
+      <c r="A100" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="43"/>
-      <c r="M100" s="43"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
-      <c r="Q100" s="43"/>
-      <c r="R100" s="44"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="53"/>
+      <c r="K100" s="53"/>
+      <c r="L100" s="53"/>
+      <c r="M100" s="53"/>
+      <c r="N100" s="53"/>
+      <c r="O100" s="53"/>
+      <c r="P100" s="53"/>
+      <c r="Q100" s="53"/>
+      <c r="R100" s="54"/>
     </row>
     <row r="101" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
@@ -7754,48 +6504,48 @@
       <c r="R110" s="15"/>
     </row>
     <row r="111" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="40"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="40"/>
-      <c r="N111" s="40"/>
-      <c r="O111" s="40"/>
-      <c r="P111" s="40"/>
-      <c r="Q111" s="40"/>
-      <c r="R111" s="41"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+      <c r="N111" s="59"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
+      <c r="R111" s="60"/>
     </row>
     <row r="112" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="43"/>
-      <c r="M112" s="43"/>
-      <c r="N112" s="43"/>
-      <c r="O112" s="43"/>
-      <c r="P112" s="43"/>
-      <c r="Q112" s="43"/>
-      <c r="R112" s="44"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
+      <c r="K112" s="53"/>
+      <c r="L112" s="53"/>
+      <c r="M112" s="53"/>
+      <c r="N112" s="53"/>
+      <c r="O112" s="53"/>
+      <c r="P112" s="53"/>
+      <c r="Q112" s="53"/>
+      <c r="R112" s="54"/>
     </row>
     <row r="113" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
@@ -8018,48 +6768,48 @@
       <c r="R122" s="15"/>
     </row>
     <row r="123" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="39" t="s">
+      <c r="A123" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B123" s="40"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="40"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="40"/>
-      <c r="K123" s="40"/>
-      <c r="L123" s="40"/>
-      <c r="M123" s="40"/>
-      <c r="N123" s="40"/>
-      <c r="O123" s="40"/>
-      <c r="P123" s="40"/>
-      <c r="Q123" s="40"/>
-      <c r="R123" s="41"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="59"/>
+      <c r="H123" s="59"/>
+      <c r="I123" s="59"/>
+      <c r="J123" s="59"/>
+      <c r="K123" s="59"/>
+      <c r="L123" s="59"/>
+      <c r="M123" s="59"/>
+      <c r="N123" s="59"/>
+      <c r="O123" s="59"/>
+      <c r="P123" s="59"/>
+      <c r="Q123" s="59"/>
+      <c r="R123" s="60"/>
     </row>
     <row r="124" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
-      <c r="N124" s="43"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="43"/>
-      <c r="Q124" s="43"/>
-      <c r="R124" s="44"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="53"/>
+      <c r="M124" s="53"/>
+      <c r="N124" s="53"/>
+      <c r="O124" s="53"/>
+      <c r="P124" s="53"/>
+      <c r="Q124" s="53"/>
+      <c r="R124" s="54"/>
     </row>
     <row r="125" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
@@ -8282,48 +7032,48 @@
       <c r="R134" s="15"/>
     </row>
     <row r="135" spans="1:18" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="40"/>
-      <c r="F135" s="40"/>
-      <c r="G135" s="40"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="40"/>
-      <c r="K135" s="40"/>
-      <c r="L135" s="40"/>
-      <c r="M135" s="40"/>
-      <c r="N135" s="40"/>
-      <c r="O135" s="40"/>
-      <c r="P135" s="40"/>
-      <c r="Q135" s="40"/>
-      <c r="R135" s="41"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="59"/>
+      <c r="I135" s="59"/>
+      <c r="J135" s="59"/>
+      <c r="K135" s="59"/>
+      <c r="L135" s="59"/>
+      <c r="M135" s="59"/>
+      <c r="N135" s="59"/>
+      <c r="O135" s="59"/>
+      <c r="P135" s="59"/>
+      <c r="Q135" s="59"/>
+      <c r="R135" s="60"/>
     </row>
     <row r="136" spans="1:18" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="43"/>
-      <c r="H136" s="43"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="43"/>
-      <c r="K136" s="43"/>
-      <c r="L136" s="43"/>
-      <c r="M136" s="43"/>
-      <c r="N136" s="43"/>
-      <c r="O136" s="43"/>
-      <c r="P136" s="43"/>
-      <c r="Q136" s="43"/>
-      <c r="R136" s="44"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="53"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="53"/>
+      <c r="K136" s="53"/>
+      <c r="L136" s="53"/>
+      <c r="M136" s="53"/>
+      <c r="N136" s="53"/>
+      <c r="O136" s="53"/>
+      <c r="P136" s="53"/>
+      <c r="Q136" s="53"/>
+      <c r="R136" s="54"/>
     </row>
     <row r="137" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
@@ -8548,16 +7298,6 @@
     <row r="147" spans="1:18" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A135:R135"/>
-    <mergeCell ref="A136:R136"/>
-    <mergeCell ref="A63:R63"/>
-    <mergeCell ref="A64:R64"/>
-    <mergeCell ref="A123:R123"/>
-    <mergeCell ref="A124:R124"/>
-    <mergeCell ref="A111:R111"/>
-    <mergeCell ref="A112:R112"/>
-    <mergeCell ref="A99:R99"/>
-    <mergeCell ref="A100:R100"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="A16:R16"/>
     <mergeCell ref="A39:R39"/>
@@ -8573,36 +7313,46 @@
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A135:R135"/>
+    <mergeCell ref="A136:R136"/>
+    <mergeCell ref="A63:R63"/>
+    <mergeCell ref="A64:R64"/>
+    <mergeCell ref="A123:R123"/>
+    <mergeCell ref="A124:R124"/>
+    <mergeCell ref="A111:R111"/>
+    <mergeCell ref="A112:R112"/>
+    <mergeCell ref="A99:R99"/>
+    <mergeCell ref="A100:R100"/>
   </mergeCells>
   <conditionalFormatting sqref="C137:C146 C125:C134 C113:C122 C101:C110 C89:C98 C77:C86 C65:C74 C53:C62 C41:C50 C29:C38 C17:C26 C5:C14">
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F146 F125:F134 F113:F122 F101:F110 F89:F98 F77:F86 F65:F74 F53:F62 F41:F50 F29:F38 F17:F26 F5:F14">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D137:D146 D125:D134 D113:D122 D101:D110 D89:D98 D77:D86 D65:D74 D53:D62 D41:D50 D29:D38 D17:D26 D5:D14">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
       <formula>IF(AND(NOT(ISBLANK($D5)), $D5&lt;TODAY(), OR($F5="Not Started", $F5="")), 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137:E146 E125:E134 E113:E122 E101:E110 E89:E98 E77:E86 E65:E74 E53:E62 E41:E50 E29:E38 E17:E26 E5:E14">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>IF($E5="", 0, IF(AND(OR($F5="Not Started", $F5="", $F5="In Progress", $F5="On Hold"), $E5&lt;TODAY()), 1, 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8621,17 +7371,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K14 K17:K26 K29:K38 K41:K50 K53:K62 K65:K74 K77:K86 K89:K98 K101:K110 K113:K122 K125:K134 K137:K146">
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>IF($K5="", 0, IF(AND($K5&lt;TODAY(), $L5="", OR($F5="", $F5="Not Started", $F5="In Progress")), 1, 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M14 M17:M26 M29:M38 M41:M50 M53:M62 M65:M74 M77:M86 M89:M98 M101:M110 M113:M122 M125:M134 M137:M146">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>IF($M5="", 0, IF(AND($M5&lt;TODAY(), $N5="", OR($F5="", $F5="Not Started", $F5="In Progress")), 1, 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O14 O17:O26 O29:O38 O41:O50 O53:O62 O65:O74 O77:O86 O89:O98 O101:O110 O113:O122 O125:O134 O137:O146">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>IF($O5="", 0, IF(AND($O5&lt;TODAY(), $P5="", OR($F5="", $F5="Not Started", $F5="In Progress")), 1, 0))</formula>
     </cfRule>
   </conditionalFormatting>
